--- a/public/template/Template Jadwal.xlsx
+++ b/public/template/Template Jadwal.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Laravel\parlaungan\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Laravel\parlaungan\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA9E8C8-8934-4B7A-B13A-5007A4049CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593E20E1-E2CB-4B96-AEB0-96C00FC22692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D6BA756-BD93-49EF-976F-FB52D71DE4BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,31 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
-  <si>
-    <t>id_jadwal</t>
-  </si>
-  <si>
-    <t>hari</t>
-  </si>
-  <si>
-    <t>guru_id</t>
-  </si>
-  <si>
-    <t>kelas_id</t>
-  </si>
-  <si>
-    <t>mapel</t>
-  </si>
-  <si>
-    <t>mulai</t>
-  </si>
-  <si>
-    <t>sampai</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Senin</t>
   </si>
@@ -220,13 +196,16 @@
   </si>
   <si>
     <t>endangsetia</t>
+  </si>
+  <si>
+    <t>Fisika</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +230,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -645,87 +630,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE07E148-0B7D-4D8D-B79B-0396B4827E67}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368747E6-0150-47A8-87D7-932624CD9683}">
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="6"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{0DC8EBD8-1D5B-4D7E-A350-1A7616DBFB1B}">
-      <formula1>"Senin, Selasa, Rabu, Kamis, Jumat, Sabtu"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0793E125-3E9F-4438-837D-029E2DD6C5E3}">
-          <x14:formula1>
-            <xm:f>Data!$B:$B</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72515755-F2FF-4A6D-9237-1C1BC33C9542}">
-          <x14:formula1>
-            <xm:f>Data!$E:$E</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368747E6-0150-47A8-87D7-932624CD9683}">
-  <dimension ref="A1:E43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,229 +642,301 @@
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -992,7 +973,82 @@
       <c r="B43" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE07E148-0B7D-4D8D-B79B-0396B4827E67}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{0DC8EBD8-1D5B-4D7E-A350-1A7616DBFB1B}">
+      <formula1>"Senin, Selasa, Rabu, Kamis, Jumat, Sabtu"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0793E125-3E9F-4438-837D-029E2DD6C5E3}">
+          <x14:formula1>
+            <xm:f>Data!$B:$B</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72515755-F2FF-4A6D-9237-1C1BC33C9542}">
+          <x14:formula1>
+            <xm:f>Data!$E:$E</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:F1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B67A2E04-B1EC-43BA-AFB9-6AAAEFB3FDB6}">
+          <x14:formula1>
+            <xm:f>Data!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{42354215-9E51-43F4-9BB8-A316948F14BE}">
+          <x14:formula1>
+            <xm:f>Data!$D:$D</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>